--- a/Project_V/Assets/ExcelFiles/dialogue_new.xlsx
+++ b/Project_V/Assets/ExcelFiles/dialogue_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25F7459-FA0B-48A7-BA6F-287D5B336BAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A47C0D9-678D-44C8-8B24-0C5D3F8CBF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
+    <workbookView xWindow="840" yWindow="615" windowWidth="27180" windowHeight="10890" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
   <sheets>
     <sheet name="dialoguetest" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
   <si>
     <t>Index</t>
   </si>
@@ -235,10 +235,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>Move_Pos</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Move_Spd</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -256,6 +252,14 @@
   </si>
   <si>
     <t>Cmd_Target</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move_X</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move_Y</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1262,10 +1266,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F55DEE-F15F-4966-8E9E-BA70017D36A1}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1277,7 +1281,7 @@
     <col min="9" max="9" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>30</v>
       </c>
@@ -1288,7 +1292,7 @@
         <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1300,22 +1304,25 @@
         <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>44</v>
       </c>
@@ -1338,10 +1345,15 @@
       <c r="H2" s="2"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K2" s="3">
+        <v>960</v>
+      </c>
+      <c r="L2" s="3">
+        <v>540</v>
+      </c>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>44</v>
       </c>
@@ -1364,8 +1376,9 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>43</v>
       </c>
@@ -1390,8 +1403,9 @@
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
@@ -1408,7 +1422,7 @@
         <v>4</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
@@ -1418,8 +1432,9 @@
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>44</v>
       </c>
@@ -1438,8 +1453,9 @@
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>44</v>
       </c>
@@ -1462,8 +1478,9 @@
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>43</v>
       </c>
@@ -1486,8 +1503,9 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>43</v>
       </c>
@@ -1510,8 +1528,9 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
@@ -1534,8 +1553,9 @@
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>43</v>
       </c>
@@ -1558,8 +1578,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>43</v>
       </c>
@@ -1582,8 +1603,9 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
@@ -1606,8 +1628,9 @@
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -1630,8 +1653,9 @@
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
@@ -1654,8 +1678,9 @@
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -1678,8 +1703,9 @@
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>31</v>
       </c>
@@ -1702,8 +1728,9 @@
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>31</v>
       </c>
@@ -1726,8 +1753,9 @@
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>41</v>
       </c>
@@ -1750,6 +1778,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Project_V/Assets/ExcelFiles/dialogue_new.xlsx
+++ b/Project_V/Assets/ExcelFiles/dialogue_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A47C0D9-678D-44C8-8B24-0C5D3F8CBF73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9F38EE-6C2A-4E9E-8A6B-341716A359BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="840" yWindow="615" windowWidth="27180" windowHeight="10890" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
   <sheets>
     <sheet name="dialoguetest" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
   <si>
     <t>Index</t>
   </si>
@@ -41,225 +41,250 @@
     <t>테스트5</t>
   </si>
   <si>
-    <t>대화테스트5번</t>
+    <t>테스트1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Chapter":"Test","Index":1,"Name":"테스트2","Text":"대화테스트2번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
+  </si>
+  <si>
+    <t>{"Chapter":"Test","Index":2,"Name":"테스트3","Text":"대화테스트3번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
+  </si>
+  <si>
+    <t>{"Chapter":"Test","Index":3,"Name":"테스트4","Text":"대화테스트4번","Sprite1":308801,"Pos1":874,"Layer1":null,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
+  </si>
+  <si>
+    <t>{"Chapter":"Test","Index":4,"Name":"테스트5","Text":"대화테스트5번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
+  </si>
+  <si>
+    <t>{"Chapter":"Test","Index":5,"Name":"테스트6","Text":"대화테스트6번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
+  </si>
+  <si>
+    <t>{"Chapter":"Test","Index":6,"Name":"테스트7","Text":"대화테스트7번","Sprite1":308801,"Pos1":874,"Layer1":1,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
+  </si>
+  <si>
+    <t>{"Chapter":"Test","Index":7,"Name":"테스트8","Text":"대화테스트8번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
+  </si>
+  <si>
+    <t>{"Chapter":"Test","Index":8,"Name":"테스트9","Text":"대화테스트9번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2}</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Test":</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Chapter":"Test","Index":0,"Name":"테스트1","Text":"대화테스트1번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stamp</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>선생님 도장 틀렸어요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>그렇군요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주의하겠습니다.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>네 수고요.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>애들리</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>패처 정상작동 테스트</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_End</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>완</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_Begin</t>
+  </si>
+  <si>
+    <t>1_Begin</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>talk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fade_out</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>order</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>fade_in</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test_Street</t>
+  </si>
+  <si>
+    <t>main_talk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainTalk_Sprite</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1face</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공의 말하기 2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2face</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공의 말하는데 엄청 긴 단어를 말하는 중</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>엄청 긴 단어를 말하는 중 엄청 긴 단어를 말하는 중</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move_Spd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Set</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cmd</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cmd_Target</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move_X</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Move_Y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>말하면서 페이드인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>말하면서 페이드아웃</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓸데없는 내용~</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>테스트6</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>대화테스트6번</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>테스트7</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>대화테스트7번</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>테스트8</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>대화테스트8번</t>
-  </si>
-  <si>
-    <t>테스트9</t>
-  </si>
-  <si>
-    <t>대화테스트9번</t>
-  </si>
-  <si>
-    <t>테스트1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>{</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>[</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>]</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Chapter":"Test","Index":1,"Name":"테스트2","Text":"대화테스트2번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
-  </si>
-  <si>
-    <t>{"Chapter":"Test","Index":2,"Name":"테스트3","Text":"대화테스트3번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
-  </si>
-  <si>
-    <t>{"Chapter":"Test","Index":3,"Name":"테스트4","Text":"대화테스트4번","Sprite1":308801,"Pos1":874,"Layer1":null,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
-  </si>
-  <si>
-    <t>{"Chapter":"Test","Index":4,"Name":"테스트5","Text":"대화테스트5번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
-  </si>
-  <si>
-    <t>{"Chapter":"Test","Index":5,"Name":"테스트6","Text":"대화테스트6번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
-  </si>
-  <si>
-    <t>{"Chapter":"Test","Index":6,"Name":"테스트7","Text":"대화테스트7번","Sprite1":308801,"Pos1":874,"Layer1":1,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
-  </si>
-  <si>
-    <t>{"Chapter":"Test","Index":7,"Name":"테스트8","Text":"대화테스트8번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
-  </si>
-  <si>
-    <t>{"Chapter":"Test","Index":8,"Name":"테스트9","Text":"대화테스트9번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2}</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Test":</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Chapter":"Test","Index":0,"Name":"테스트1","Text":"대화테스트1번","Sprite1":308801,"Pos1":874,"Layer1":0,"Sprite2":null,"Pos2":null,"Layer2":null,"Sprite3":308001,"Pos3":874,"Layer3":2},</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Id</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stamp</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>선생님 도장 틀렸어요.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>그렇군요.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>주의하겠습니다.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>네 수고요.</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>애들리</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>전화</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>테스트</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>패처 정상작동 테스트</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어굉장히 긴 단어</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_End</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>완</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_Begin</t>
-  </si>
-  <si>
-    <t>1_Begin</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>talk</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>fade_out</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>order</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>fade_in</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test_Street</t>
-  </si>
-  <si>
-    <t>main_talk</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>MainTalk_Sprite</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>test1face</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>주인공의 말하기 2</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>test2face</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>주인공의 말하는데 엄청 긴 단어를 말하는 중</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>엄청 긴 단어를 말하는 중 엄청 긴 단어를 말하는 중</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Move</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Move_Spd</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Set</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>말하면서 Fade됨</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cmd</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cmd_Target</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Move_X</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Move_Y</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>D_308801</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>D_308001</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>chr1_image</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>chr2_image</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1266,519 +1291,588 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F55DEE-F15F-4966-8E9E-BA70017D36A1}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="11.125" customWidth="1"/>
-    <col min="6" max="6" width="49.5" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="11.75" customWidth="1"/>
+    <col min="6" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="49.5" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>53</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3">
-        <v>960</v>
-      </c>
-      <c r="L2" s="3">
-        <v>540</v>
-      </c>
+      <c r="I2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="3"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="D3" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="I3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>67</v>
+      </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B4" s="3">
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="3"/>
+      <c r="E4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="2"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D5" s="3" t="b">
+        <v>37</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="3"/>
+      <c r="F5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B6" s="3">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="3"/>
+      <c r="E6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="2"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="3"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>50</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B8" s="3">
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G8" s="2"/>
+      <c r="E8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="I8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="2"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B9" s="3">
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="D9" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="H9" s="2"/>
-      <c r="I9" s="3"/>
+      <c r="I9" s="2"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B10" s="3">
         <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="2"/>
+      <c r="E10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4" t="s">
+        <v>58</v>
+      </c>
       <c r="H10" s="2"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="I10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B11" s="3">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="2"/>
+      <c r="E11" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="H11" s="2"/>
-      <c r="I11" s="3"/>
+      <c r="I11" s="2"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B12" s="3">
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="2"/>
+      <c r="E12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="H12" s="2"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="2"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="3"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B15" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="H15" s="2"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="3"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B16" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="H16" s="2"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="3"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="H17" s="2"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="3"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="B18" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
+      <c r="J18" s="3"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="B19" s="3">
+        <v>5</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="3">
         <v>0</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -1798,72 +1892,72 @@
   <sheetData>
     <row r="1" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Project_V/Assets/ExcelFiles/dialogue_new.xlsx
+++ b/Project_V/Assets/ExcelFiles/dialogue_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9F38EE-6C2A-4E9E-8A6B-341716A359BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285A7A9E-29A1-464E-9D46-CD2EC20A183F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
   <si>
     <t>Index</t>
   </si>
@@ -196,10 +196,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>주인공의 말하는데 엄청 긴 단어를 말하는 중</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>엄청 긴 단어를 말하는 중 엄청 긴 단어를 말하는 중</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -240,10 +236,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>쓸데없는 내용~</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>Next</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -252,18 +244,10 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>대화테스트6번</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>테스트7</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>대화테스트7번</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>테스트8</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -285,6 +269,34 @@
   </si>
   <si>
     <t>chr2_image</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>chr1_image_change</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>chr2_image_change</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>chr1_move</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>텔레포트하기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>서서히 움직이기</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>쓸데없는 내용~ &lt;- 반영 안되는게 맞음</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공의 말하기 1, 다음번에 단일 오더로 움직이기</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1291,10 +1303,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F55DEE-F15F-4966-8E9E-BA70017D36A1}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1302,7 +1314,7 @@
     <col min="6" max="6" width="11.125" customWidth="1"/>
     <col min="7" max="7" width="49.5" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="9" max="9" width="18.625" customWidth="1"/>
     <col min="10" max="10" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1317,10 +1329,10 @@
         <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
@@ -1332,22 +1344,22 @@
         <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -1368,10 +1380,10 @@
       <c r="G2" s="4"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -1396,10 +1408,10 @@
       <c r="G3" s="4"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
@@ -1424,7 +1436,7 @@
         <v>27</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>44</v>
@@ -1438,55 +1450,57 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>48</v>
-      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
+      <c r="K5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>900</v>
+      </c>
+      <c r="M5" s="3">
+        <v>874</v>
+      </c>
       <c r="N5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" s="3">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="b">
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1502,19 +1516,21 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="F7" s="3" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="I7" s="2"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
@@ -1532,10 +1548,10 @@
       <c r="C8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="D8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="2"/>
@@ -1558,12 +1574,12 @@
       <c r="C9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="F9" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>56</v>
@@ -1586,13 +1602,13 @@
       <c r="C10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="D10" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="4" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
@@ -1621,10 +1637,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1636,30 +1652,34 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B12" s="3">
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>63</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="4"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
+      <c r="K12" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>500</v>
+      </c>
+      <c r="M12" s="3">
+        <v>874</v>
+      </c>
       <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -1677,10 +1697,10 @@
         <v>1</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1692,88 +1712,100 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="M14" s="3">
+        <v>874</v>
+      </c>
+      <c r="N14" s="3">
+        <v>5</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B15" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="E15" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="F15" s="3" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B16" s="3">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="E16" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="F16" s="3" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>37</v>
@@ -1784,7 +1816,7 @@
         <v>27</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1799,7 +1831,7 @@
         <v>22</v>
       </c>
       <c r="B18" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>37</v>
@@ -1810,7 +1842,7 @@
         <v>28</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1825,7 +1857,7 @@
         <v>22</v>
       </c>
       <c r="B19" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>37</v>
@@ -1833,14 +1865,14 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
+      <c r="J19" s="3"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1848,31 +1880,169 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="3" t="b">
-        <v>1</v>
-      </c>
+      <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3">
+        <v>4</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="3">
+        <v>0</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Project_V/Assets/ExcelFiles/dialogue_new.xlsx
+++ b/Project_V/Assets/ExcelFiles/dialogue_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285A7A9E-29A1-464E-9D46-CD2EC20A183F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F666C5-DE6F-4ADD-84E6-B1545D7AA485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
@@ -1306,7 +1306,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Project_V/Assets/ExcelFiles/dialogue_new.xlsx
+++ b/Project_V/Assets/ExcelFiles/dialogue_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F666C5-DE6F-4ADD-84E6-B1545D7AA485}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81318A70-6A80-4764-97D8-DB981E7A9728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="72">
   <si>
     <t>Index</t>
   </si>
@@ -233,10 +233,6 @@
   </si>
   <si>
     <t>말하면서 페이드아웃</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>Next</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -1303,22 +1299,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85F55DEE-F15F-4966-8E9E-BA70017D36A1}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="49.5" customWidth="1"/>
-    <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="18.625" customWidth="1"/>
-    <col min="10" max="10" width="11.75" customWidth="1"/>
+    <col min="5" max="5" width="11.125" customWidth="1"/>
+    <col min="6" max="6" width="49.5" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="18.625" customWidth="1"/>
+    <col min="9" max="9" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
@@ -1332,37 +1328,34 @@
         <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="N1" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -1376,21 +1369,20 @@
         <v>1</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="2"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="I2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>62</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>35</v>
       </c>
@@ -1404,21 +1396,20 @@
         <v>1</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>63</v>
-      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
@@ -1429,26 +1420,23 @@
         <v>42</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" s="2" t="s">
+      <c r="F4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -1459,28 +1447,25 @@
         <v>39</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3" t="b">
+      <c r="E5" s="3"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="K5" s="3">
+        <v>900</v>
+      </c>
       <c r="L5" s="3">
-        <v>900</v>
-      </c>
-      <c r="M5" s="3">
         <v>874</v>
       </c>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
@@ -1491,24 +1476,21 @@
         <v>37</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>47</v>
       </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -1519,26 +1501,23 @@
         <v>42</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>35</v>
       </c>
@@ -1551,20 +1530,19 @@
       <c r="D8" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -1575,24 +1553,21 @@
         <v>37</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>34</v>
       </c>
@@ -1606,23 +1581,22 @@
         <v>1</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H10" s="2"/>
+      <c r="F10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="I10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" s="2" t="s">
         <v>41</v>
       </c>
+      <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1633,24 +1607,21 @@
         <v>37</v>
       </c>
       <c r="D11" s="3"/>
-      <c r="E11" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>55</v>
       </c>
+      <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -1664,25 +1635,24 @@
         <v>1</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3" t="b">
+      <c r="F12" s="4"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3" t="b">
         <v>0</v>
       </c>
+      <c r="K12" s="3">
+        <v>500</v>
+      </c>
       <c r="L12" s="3">
-        <v>500</v>
-      </c>
-      <c r="M12" s="3">
         <v>874</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>34</v>
       </c>
@@ -1693,24 +1663,21 @@
         <v>37</v>
       </c>
       <c r="D13" s="3"/>
-      <c r="E13" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>69</v>
-      </c>
+      <c r="E13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>34</v>
       </c>
@@ -1724,27 +1691,26 @@
         <v>1</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3" t="b">
+      <c r="F14" s="4"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3" t="b">
         <v>1</v>
       </c>
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>874</v>
       </c>
       <c r="M14" s="3">
-        <v>874</v>
-      </c>
-      <c r="N14" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>34</v>
       </c>
@@ -1755,24 +1721,21 @@
         <v>37</v>
       </c>
       <c r="D15" s="3"/>
-      <c r="E15" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>70</v>
-      </c>
+      <c r="E15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
@@ -1783,24 +1746,21 @@
         <v>37</v>
       </c>
       <c r="D16" s="3"/>
-      <c r="E16" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3" t="s">
+      <c r="E16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -1811,22 +1771,21 @@
         <v>37</v>
       </c>
       <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>22</v>
       </c>
@@ -1837,22 +1796,21 @@
         <v>37</v>
       </c>
       <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>23</v>
       </c>
+      <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>22</v>
       </c>
@@ -1863,22 +1821,21 @@
         <v>37</v>
       </c>
       <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1889,22 +1846,21 @@
         <v>37</v>
       </c>
       <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -1915,22 +1871,21 @@
         <v>37</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3" t="s">
+      <c r="E21" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1941,22 +1896,21 @@
         <v>37</v>
       </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>32</v>
       </c>
@@ -1969,24 +1923,23 @@
       <c r="D23" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3" t="s">
+      <c r="E23" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J23" s="3" t="s">
+      <c r="F23" s="4"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="I23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>32</v>
       </c>
@@ -1999,24 +1952,23 @@
       <c r="D24" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="2"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="I24" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>62</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>32</v>
       </c>
@@ -2027,22 +1979,19 @@
         <v>37</v>
       </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3" t="s">
+      <c r="E25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="F25" s="4" t="s">
         <v>33</v>
       </c>
+      <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Project_V/Assets/ExcelFiles/dialogue_new.xlsx
+++ b/Project_V/Assets/ExcelFiles/dialogue_new.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81318A70-6A80-4764-97D8-DB981E7A9728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AC2F10-B920-448B-9E07-687ADF1B1F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="71">
   <si>
     <t>Index</t>
   </si>
@@ -176,10 +176,6 @@
     <t>Test_Street</t>
   </si>
   <si>
-    <t>main_talk</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>MainTalk_Sprite</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -260,14 +256,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>chr1_image</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>chr2_image</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>chr1_image_change</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -294,6 +282,12 @@
   <si>
     <t>주인공의 말하기 1, 다음번에 단일 오더로 움직이기</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>chr1_image_change</t>
+  </si>
+  <si>
+    <t>chr2_image_change</t>
   </si>
 </sst>
 </file>
@@ -1302,7 +1296,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1325,7 +1319,7 @@
         <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1334,25 +1328,25 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1372,10 +1366,10 @@
       <c r="F2" s="4"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
@@ -1399,10 +1393,10 @@
       <c r="F3" s="4"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -1417,17 +1411,17 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="3"/>
@@ -1451,7 +1445,7 @@
       <c r="F5" s="4"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="3" t="b">
@@ -1480,7 +1474,7 @@
         <v>3</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -1498,17 +1492,17 @@
         <v>5</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>46</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="3"/>
@@ -1557,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1582,7 +1576,7 @@
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
@@ -1611,7 +1605,7 @@
         <v>5</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1638,7 +1632,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="3" t="b">
@@ -1664,10 +1658,10 @@
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -1694,7 +1688,7 @@
       <c r="F14" s="4"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="3" t="b">
@@ -1722,10 +1716,10 @@
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1747,10 +1741,10 @@
       </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -1929,10 +1923,10 @@
       <c r="F23" s="4"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -1958,10 +1952,10 @@
       <c r="F24" s="4"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>

--- a/Project_V/Assets/ExcelFiles/dialogue_new.xlsx
+++ b/Project_V/Assets/ExcelFiles/dialogue_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tksth\Desktop\Project_V\Project_V\Assets\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9AC2F10-B920-448B-9E07-687ADF1B1F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129EBF6A-7351-4476-B333-46C593FA0353}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
+    <workbookView xWindow="150" yWindow="825" windowWidth="27180" windowHeight="10890" xr2:uid="{461F5768-34F7-45FC-8921-4FFC2D7E081A}"/>
   </bookViews>
   <sheets>
     <sheet name="dialoguetest" sheetId="1" r:id="rId1"/>
@@ -280,14 +280,14 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>주인공의 말하기 1, 다음번에 단일 오더로 움직이기</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>chr1_image_change</t>
   </si>
   <si>
     <t>chr2_image_change</t>
+  </si>
+  <si>
+    <t>무야호</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1296,7 +1296,7 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1418,7 +1418,7 @@
         <v>27</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>43</v>
@@ -1923,7 +1923,7 @@
       <c r="F23" s="4"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>61</v>
@@ -1952,7 +1952,7 @@
       <c r="F24" s="4"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>60</v>
@@ -1998,7 +1998,7 @@
   <dimension ref="B1:B14"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
